--- a/statistiche/counterfactuals_XGBoost_actualregular_predDeviant.xlsx
+++ b/statistiche/counterfactuals_XGBoost_actualregular_predDeviant.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Release A</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ER Triage</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ER Registration</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Release A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ER Triage</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -627,19 +627,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -761,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -904,34 +904,34 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1032,19 +1032,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1354,14 +1354,14 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>1</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
@@ -1425,7 +1425,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1437,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>1</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1622,14 +1622,14 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>1</v>
@@ -1693,46 +1693,46 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1756,41 +1756,41 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>1</v>
@@ -1827,34 +1827,34 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>1</v>
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2024,17 +2024,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -2043,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>1</v>
@@ -2095,10 +2095,10 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -2107,37 +2107,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2158,17 +2158,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>3</v>
@@ -2177,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2" t="n">
         <v>1</v>
@@ -2229,10 +2229,10 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>2</v>
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2292,17 +2292,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>DY</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>14</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
@@ -2311,34 +2311,34 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>1</v>
@@ -2363,46 +2363,46 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2418,140 +2418,6 @@
         </is>
       </c>
       <c r="T29" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>HIA</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S30" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>

--- a/statistiche/counterfactuals_XGBoost_actualregular_predDeviant.xlsx
+++ b/statistiche/counterfactuals_XGBoost_actualregular_predDeviant.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ER Triage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Release B</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LacticAcid</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ER Sepsis Triage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ER Registration</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Release A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Release A</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ER Triage</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
@@ -874,9 +874,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
@@ -1008,9 +1008,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1038,34 +1038,34 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
@@ -1142,9 +1142,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
@@ -1160,34 +1160,34 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1233,28 +1233,28 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
         <v>0</v>
@@ -1297,28 +1297,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1446,28 +1446,28 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -1501,31 +1501,31 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>1</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1565,43 +1565,43 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -1635,31 +1635,31 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>1</v>
@@ -1668,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1699,43 +1699,43 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -1769,31 +1769,31 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>1</v>
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1830,46 +1830,46 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -1903,31 +1903,31 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1967,43 +1967,43 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -2034,34 +2034,34 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="H24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>1</v>
@@ -2070,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2098,34 +2098,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -2168,34 +2168,34 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="H26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>1</v>
@@ -2204,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2229,37 +2229,37 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>DY</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -2302,31 +2302,31 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>1</v>
@@ -2338,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2366,58 +2366,192 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
+      <c r="K30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>
